--- a/Data/data_dictionary.xlsx
+++ b/Data/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\Dropbox\USC\Papers\Tax and FC\DataRepository\Funding-needs-and-tax-underpayments\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60F4DB6-2815-47BF-A403-AE943CE8E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57BD95C-5976-4D98-AAA5-5EB521BF639A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A772B424-BC6C-483F-8B61-55DEE0F26DE6}"/>
   </bookViews>
@@ -50,6 +50,363 @@
     <t>Accounts payable increase</t>
   </si>
   <si>
+    <t>Assets (book unless noted)</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>∆Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash ETR </t>
+  </si>
+  <si>
+    <t>Cash taxes</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Debt issues</t>
+  </si>
+  <si>
+    <t>Debt repayments</t>
+  </si>
+  <si>
+    <t>Debt issues – Debt repayments</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Equity issues</t>
+  </si>
+  <si>
+    <t>Equity repurchases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity issues – Equity repurchases </t>
+  </si>
+  <si>
+    <t>GAAP ETR</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fama French 48 industry in the most recent available year for each firm. </t>
+  </si>
+  <si>
+    <t>NCF (tax adjusted)</t>
+  </si>
+  <si>
+    <t>NCF + residual from Eq. (1)</t>
+  </si>
+  <si>
+    <t>NOL benefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undiscounted value of NOL carryforwards following the correction in Heitzman and Lester (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Available NOL benefit</t>
+  </si>
+  <si>
+    <t>max(NOL benefit, 0.23*PTI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Excess NOL benefit</t>
+  </si>
+  <si>
+    <t>NOL benefit – Available NOL benefit</t>
+  </si>
+  <si>
+    <t>OCF</t>
+  </si>
+  <si>
+    <t>Proactive tax underpayment</t>
+  </si>
+  <si>
+    <t>An indicator variable equal to 1 if tax underpayment is in the top 10% of that year</t>
+  </si>
+  <si>
+    <t>Proactive debt issue</t>
+  </si>
+  <si>
+    <t>Proactive equity issue</t>
+  </si>
+  <si>
+    <t>Proactive trade credit increase</t>
+  </si>
+  <si>
+    <t>An indicator variable equal to 1 if accounts payable increase is in the top 10% of that year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTI </t>
+  </si>
+  <si>
+    <t>PVOPLS</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Shortfall (0,1)</t>
+  </si>
+  <si>
+    <t>An indicator variable equal to 1 if A) the beginning cash plus NCF (tax adjusted) is less than zero (immediate depletion version) or B) if NCF (tax adjusted) is less than zero (NCF deficit version)</t>
+  </si>
+  <si>
+    <t>Stock return</t>
+  </si>
+  <si>
+    <t>The total return on the firm’s stock over the fiscal year</t>
+  </si>
+  <si>
+    <t>Stock volatility</t>
+  </si>
+  <si>
+    <t>σ(Return). The standard deviation of total return on the firm’s stock over the fiscal year</t>
+  </si>
+  <si>
+    <t>The residual from the expected cash tax flows model in Eq. (1) multiplied by -1.</t>
+  </si>
+  <si>
+    <t>Unconstrained (0,1)</t>
+  </si>
+  <si>
+    <t>An indicator variable equal to one if debt issues, debt repayments, equity issues, or equity repurchases (each scaled by beginning assets) are in the top quartile for a given year.</t>
+  </si>
+  <si>
+    <t>UTB</t>
+  </si>
+  <si>
+    <t>UTB current increase</t>
+  </si>
+  <si>
+    <t>Z-score</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>assets_2020dollars</t>
+  </si>
+  <si>
+    <t>assets_lag1_2020dollars</t>
+  </si>
+  <si>
+    <t>famafrench48_recentindustry</t>
+  </si>
+  <si>
+    <t>pti_scaledbyassets</t>
+  </si>
+  <si>
+    <t>Variables from Appendix A</t>
+  </si>
+  <si>
+    <t>Additional Variables</t>
+  </si>
+  <si>
+    <t>available_nol_benefit</t>
+  </si>
+  <si>
+    <t>excess_nol_benefit</t>
+  </si>
+  <si>
+    <t>tcja_indicator</t>
+  </si>
+  <si>
+    <t>positive_pti_indicator</t>
+  </si>
+  <si>
+    <t>ap_increase_scaledbyassets</t>
+  </si>
+  <si>
+    <t>dividend_indicator</t>
+  </si>
+  <si>
+    <t>unconstrained</t>
+  </si>
+  <si>
+    <t>ocf_scaledbyassets</t>
+  </si>
+  <si>
+    <t>capx_scaledbyassets</t>
+  </si>
+  <si>
+    <t>rd_scaledbyassets</t>
+  </si>
+  <si>
+    <t>adjusted_assets</t>
+  </si>
+  <si>
+    <t>market_to_book</t>
+  </si>
+  <si>
+    <t>market_to_book_lag1</t>
+  </si>
+  <si>
+    <t>Compustat Variables</t>
+  </si>
+  <si>
+    <t>gvkey</t>
+  </si>
+  <si>
+    <t>datadate</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>calendaryear</t>
+  </si>
+  <si>
+    <t>cashtax_scaledbyassets</t>
+  </si>
+  <si>
+    <t>residual</t>
+  </si>
+  <si>
+    <t>nolbenefit_lag1</t>
+  </si>
+  <si>
+    <t>cash_etr</t>
+  </si>
+  <si>
+    <t>gaap_etr</t>
+  </si>
+  <si>
+    <t>utb_increase_scaledbybegutb</t>
+  </si>
+  <si>
+    <t>utb_increase_scaledbybegutb_lag1</t>
+  </si>
+  <si>
+    <t>cash_scaledbyassets</t>
+  </si>
+  <si>
+    <t>delta_cash_scaledbyassets</t>
+  </si>
+  <si>
+    <t>debt_scaledbyassets_lag1</t>
+  </si>
+  <si>
+    <t>delta_debt_scaledbyassets</t>
+  </si>
+  <si>
+    <t>dltis_scaledbyassets</t>
+  </si>
+  <si>
+    <t>dltr_scaledbyassets</t>
+  </si>
+  <si>
+    <t>delta_equity_scaledbyassets</t>
+  </si>
+  <si>
+    <t>sstk_scaledbyassets</t>
+  </si>
+  <si>
+    <t>prstkc_scaledbyassets</t>
+  </si>
+  <si>
+    <t>ncf_taxadjusted</t>
+  </si>
+  <si>
+    <t>proactive_tax_underpayment</t>
+  </si>
+  <si>
+    <t>above_median_leverage</t>
+  </si>
+  <si>
+    <t>proactive_debtissue</t>
+  </si>
+  <si>
+    <t>proactive_equityissue</t>
+  </si>
+  <si>
+    <t>proactive_tradecredit_financing</t>
+  </si>
+  <si>
+    <t>above_median_markettobook</t>
+  </si>
+  <si>
+    <t>annret</t>
+  </si>
+  <si>
+    <t>stdret</t>
+  </si>
+  <si>
+    <t>ncf_scaledbyassets</t>
+  </si>
+  <si>
+    <t>pvopls</t>
+  </si>
+  <si>
+    <t>unexpectedcashtax</t>
+  </si>
+  <si>
+    <t>utb_scaledbyassets</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>ncf_deficit, immediate_depletion</t>
+  </si>
+  <si>
+    <t>lnassets</t>
+  </si>
+  <si>
+    <t>shortfall_before_extfin_ind</t>
+  </si>
+  <si>
+    <t>shortfall_before_tax_ind</t>
+  </si>
+  <si>
+    <t>An indicator variable equal to 1 if the firm is above industry-year median debt-to-assets</t>
+  </si>
+  <si>
+    <t>An indicator variable equal to 1 if the firm is above industry-year median market-to-book</t>
+  </si>
+  <si>
+    <t>adjusted_assets converted to 2020 dollars</t>
+  </si>
+  <si>
+    <t>adjusted_assets converted to 2020 dollars, lagged by 1 year</t>
+  </si>
+  <si>
+    <t>The calendar year of datadate</t>
+  </si>
+  <si>
+    <t>Natural log of adjusted_assets</t>
+  </si>
+  <si>
+    <t>market_to_book, lagged by 1 year</t>
+  </si>
+  <si>
+    <t>utb_increase_scaledbybegutb, lagged by 1 year</t>
+  </si>
+  <si>
+    <t>An indicator variable equal to 1 if pti_scaledbyassets is &gt; 0</t>
+  </si>
+  <si>
+    <t>Residual from Eq (1)</t>
+  </si>
+  <si>
+    <t>Casht &lt; 0 (0,1) before ext. financing, From Table 2 Panel A</t>
+  </si>
+  <si>
+    <t>Casht &lt; 0 (0,1) before tax underpayment, From Table 2 Panel A</t>
+  </si>
+  <si>
+    <t>An indicator variable equal to 1 if the firm-year is post-Tax Cuts and Jobs Act</t>
+  </si>
+  <si>
     <r>
       <t>Compustat accounts payable (</t>
     </r>
@@ -58,8 +415,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ap</t>
     </r>
@@ -67,16 +424,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) in period t minus the same value in period t - 1 </t>
     </r>
   </si>
   <si>
-    <t>Assets (book unless noted)</t>
-  </si>
-  <si>
     <r>
       <t>Compustat total assets (</t>
     </r>
@@ -85,8 +439,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>at</t>
     </r>
@@ -94,16 +448,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) less PVOPLS starting in 2019.</t>
     </r>
   </si>
   <si>
-    <t>Capex</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -112,8 +463,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>capx</t>
     </r>
@@ -121,16 +472,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
     <r>
       <t>Compustat cash and short-term investments (</t>
     </r>
@@ -139,8 +487,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>che</t>
     </r>
@@ -148,16 +496,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
   </si>
   <si>
-    <t>∆Cash</t>
-  </si>
-  <si>
     <r>
       <t>Cash</t>
     </r>
@@ -166,8 +511,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>t</t>
     </r>
@@ -175,8 +520,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> – Cash</t>
     </r>
@@ -185,16 +530,13 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">t-1 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cash ETR </t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -203,8 +545,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>txpd</t>
     </r>
@@ -212,16 +554,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) / PTI, winsorized at 0 and 1</t>
     </r>
   </si>
   <si>
-    <t>Cash taxes</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -230,8 +569,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>txpd</t>
     </r>
@@ -239,16 +578,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
   </si>
   <si>
-    <t>Debt</t>
-  </si>
-  <si>
     <r>
       <t>Balance sheet debt (</t>
     </r>
@@ -257,8 +593,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>dlc</t>
     </r>
@@ -266,8 +602,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + </t>
     </r>
@@ -276,8 +612,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>dltt</t>
     </r>
@@ -285,16 +621,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) less PVOPLS starting in 2019</t>
     </r>
   </si>
   <si>
-    <t>Debt issues</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -303,8 +636,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>dltis</t>
     </r>
@@ -312,16 +645,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
   </si>
   <si>
-    <t>Debt repayments</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -330,8 +660,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>dltr</t>
     </r>
@@ -339,8 +669,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">).  </t>
     </r>
@@ -354,19 +684,13 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CF</t>
     </r>
   </si>
   <si>
-    <t>Debt issues – Debt repayments</t>
-  </si>
-  <si>
-    <t>Dividends</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -375,8 +699,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>dvc</t>
     </r>
@@ -384,16 +708,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
   </si>
   <si>
-    <t>Equity issues</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -402,8 +723,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>sstk</t>
     </r>
@@ -411,16 +732,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Equity repurchases</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -429,8 +747,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>prstkc</t>
     </r>
@@ -438,8 +756,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -453,19 +771,13 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CF</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Equity issues – Equity repurchases </t>
-  </si>
-  <si>
-    <t>GAAP ETR</t>
-  </si>
-  <si>
     <r>
       <t>Compustat total income tax (</t>
     </r>
@@ -474,8 +786,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>txt</t>
     </r>
@@ -483,19 +795,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) / PTI, winsorized at 0 and 1</t>
     </r>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fama French 48 industry in the most recent available year for each firm. </t>
-  </si>
-  <si>
     <r>
       <t>Market-to-book</t>
     </r>
@@ -504,8 +810,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>t</t>
     </r>
@@ -519,8 +825,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>prcc_f</t>
     </r>
@@ -528,8 +834,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> * </t>
     </r>
@@ -538,8 +844,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>csho</t>
     </r>
@@ -547,8 +853,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) - common equity (</t>
     </r>
@@ -557,8 +863,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ceq</t>
     </r>
@@ -566,8 +872,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)  / Assets.</t>
     </r>
@@ -581,8 +887,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -596,8 +902,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> t-1 </t>
     </r>
@@ -605,8 +911,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> – Dividends</t>
     </r>
@@ -615,8 +921,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> t-1</t>
     </r>
@@ -625,40 +931,13 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
-    <t>NCF (tax adjusted)</t>
-  </si>
-  <si>
-    <t>NCF + residual from Eq. (1)</t>
-  </si>
-  <si>
-    <t>NOL benefit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undiscounted value of NOL carryforwards following the correction in Heitzman and Lester (2021) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Available NOL benefit</t>
-  </si>
-  <si>
-    <t>max(NOL benefit, 0.23*PTI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Excess NOL benefit</t>
-  </si>
-  <si>
-    <t>NOL benefit – Available NOL benefit</t>
-  </si>
-  <si>
-    <t>OCF</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -667,22 +946,13 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>oancf)</t>
     </r>
   </si>
   <si>
-    <t>Proactive tax underpayment</t>
-  </si>
-  <si>
-    <t>An indicator variable equal to 1 if tax underpayment is in the top 10% of that year</t>
-  </si>
-  <si>
-    <t>Proactive debt issue</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">An indicator variable equal to 1 if </t>
     </r>
@@ -690,8 +960,8 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>∆D</t>
     </r>
@@ -700,8 +970,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CF t</t>
     </r>
@@ -709,8 +979,8 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / Assets</t>
     </r>
@@ -719,8 +989,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>t-1</t>
     </r>
@@ -728,8 +998,8 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -737,16 +1007,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>is in the top 10% of that year</t>
     </r>
   </si>
   <si>
-    <t>Proactive equity issue</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">An indicator variable equal to 1 if </t>
     </r>
@@ -754,8 +1021,8 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>∆E</t>
     </r>
@@ -764,8 +1031,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CF t</t>
     </r>
@@ -773,8 +1040,8 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / Assets</t>
     </r>
@@ -783,8 +1050,8 @@
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>t-1</t>
     </r>
@@ -792,8 +1059,8 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -801,22 +1068,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>is in the top 10% of that year</t>
     </r>
   </si>
   <si>
-    <t>Proactive trade credit increase</t>
-  </si>
-  <si>
-    <t>An indicator variable equal to 1 if accounts payable increase is in the top 10% of that year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTI </t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -825,8 +1083,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>pi</t>
     </r>
@@ -834,8 +1092,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) – Compustat (</t>
     </r>
@@ -844,16 +1102,13 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>spi)</t>
     </r>
   </si>
   <si>
-    <t>PVOPLS</t>
-  </si>
-  <si>
     <r>
       <t>Present value of operating lease calculated as the present value of future minimum lease payments (</t>
     </r>
@@ -862,8 +1117,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>mrc1</t>
     </r>
@@ -871,8 +1126,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> – </t>
     </r>
@@ -881,8 +1136,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>mrc5</t>
     </r>
@@ -890,8 +1145,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) discounted using the Baa yield and assuming that payments after six years (</t>
     </r>
@@ -900,8 +1155,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>mrcta</t>
     </r>
@@ -909,16 +1164,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) occur equally over a five-year period.</t>
     </r>
   </si>
   <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
     <r>
       <t>Compustat (</t>
     </r>
@@ -927,8 +1179,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>xrd</t>
     </r>
@@ -936,57 +1188,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">). </t>
     </r>
   </si>
   <si>
-    <t>Shortfall (0,1)</t>
-  </si>
-  <si>
-    <t>An indicator variable equal to 1 if A) the beginning cash plus NCF (tax adjusted) is less than zero (immediate depletion version) or B) if NCF (tax adjusted) is less than zero (NCF deficit version)</t>
-  </si>
-  <si>
-    <t>Stock return</t>
-  </si>
-  <si>
-    <t>The total return on the firm’s stock over the fiscal year</t>
-  </si>
-  <si>
-    <t>Stock volatility</t>
-  </si>
-  <si>
-    <t>σ(Return). The standard deviation of total return on the firm’s stock over the fiscal year</t>
-  </si>
-  <si>
-    <r>
-      <t>Tax underpayment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>The residual from the expected cash tax flows model in Eq. (1) multiplied by -1.</t>
-  </si>
-  <si>
-    <t>Unconstrained (0,1)</t>
-  </si>
-  <si>
-    <t>An indicator variable equal to one if debt issues, debt repayments, equity issues, or equity repurchases (each scaled by beginning assets) are in the top quartile for a given year.</t>
-  </si>
-  <si>
-    <t>UTB</t>
-  </si>
-  <si>
     <r>
       <t>Compustat unrecognized tax benefit (</t>
     </r>
@@ -995,8 +1203,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>txtubend</t>
     </r>
@@ -1004,16 +1212,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
   </si>
   <si>
-    <t>UTB current increase</t>
-  </si>
-  <si>
     <r>
       <t>Compustat unrecognized tax benefit increase - current tax positions  (</t>
     </r>
@@ -1022,8 +1227,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>txtubposinc</t>
     </r>
@@ -1031,8 +1236,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) scaled by beginning UTB (</t>
     </r>
@@ -1041,8 +1246,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>txtubbegin</t>
     </r>
@@ -1050,16 +1255,13 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Z-score</t>
-  </si>
-  <si>
     <r>
       <t>3.3*pretax income (</t>
     </r>
@@ -1068,8 +1270,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>pi</t>
     </r>
@@ -1077,8 +1279,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) + 1.0*Sales (</t>
     </r>
@@ -1087,8 +1289,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>sale</t>
     </r>
@@ -1096,8 +1298,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) + 1.4*Retained earnings (</t>
     </r>
@@ -1106,8 +1308,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>re</t>
     </r>
@@ -1115,8 +1317,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>) + 1.2*Working capital (</t>
     </r>
@@ -1125,8 +1327,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>act</t>
     </r>
@@ -1134,8 +1336,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> – </t>
     </r>
@@ -1144,8 +1346,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>lct</t>
     </r>
@@ -1153,8 +1355,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) / </t>
     </r>
@@ -1163,8 +1365,8 @@
         <i/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>at</t>
     </r>
@@ -1172,234 +1374,21 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>assets_2020dollars</t>
-  </si>
-  <si>
-    <t>assets_lag1_2020dollars</t>
-  </si>
-  <si>
-    <t>famafrench48_recentindustry</t>
-  </si>
-  <si>
-    <t>pti_scaledbyassets</t>
-  </si>
-  <si>
-    <t>Variables from Appendix A</t>
-  </si>
-  <si>
-    <t>Additional Variables</t>
-  </si>
-  <si>
-    <t>available_nol_benefit</t>
-  </si>
-  <si>
-    <t>excess_nol_benefit</t>
-  </si>
-  <si>
-    <t>tcja_indicator</t>
-  </si>
-  <si>
-    <t>positive_pti_indicator</t>
-  </si>
-  <si>
-    <t>ap_increase_scaledbyassets</t>
-  </si>
-  <si>
-    <t>dividend_indicator</t>
-  </si>
-  <si>
-    <t>unconstrained</t>
-  </si>
-  <si>
-    <t>ocf_scaledbyassets</t>
-  </si>
-  <si>
-    <t>capx_scaledbyassets</t>
-  </si>
-  <si>
-    <t>rd_scaledbyassets</t>
-  </si>
-  <si>
-    <t>adjusted_assets</t>
-  </si>
-  <si>
-    <t>market_to_book</t>
-  </si>
-  <si>
-    <t>market_to_book_lag1</t>
-  </si>
-  <si>
-    <t>Compustat Variables</t>
-  </si>
-  <si>
-    <t>gvkey</t>
-  </si>
-  <si>
-    <t>datadate</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>calendaryear</t>
-  </si>
-  <si>
-    <t>cashtax_scaledbyassets</t>
-  </si>
-  <si>
-    <t>residual</t>
-  </si>
-  <si>
-    <t>nolbenefit_lag1</t>
-  </si>
-  <si>
-    <t>cash_etr</t>
-  </si>
-  <si>
-    <t>gaap_etr</t>
-  </si>
-  <si>
-    <t>utb_increase_scaledbybegutb</t>
-  </si>
-  <si>
-    <t>utb_increase_scaledbybegutb_lag1</t>
-  </si>
-  <si>
-    <t>cash_scaledbyassets</t>
-  </si>
-  <si>
-    <t>delta_cash_scaledbyassets</t>
-  </si>
-  <si>
-    <t>debt_scaledbyassets_lag1</t>
-  </si>
-  <si>
-    <t>delta_debt_scaledbyassets</t>
-  </si>
-  <si>
-    <t>dltis_scaledbyassets</t>
-  </si>
-  <si>
-    <t>dltr_scaledbyassets</t>
-  </si>
-  <si>
-    <t>delta_equity_scaledbyassets</t>
-  </si>
-  <si>
-    <t>sstk_scaledbyassets</t>
-  </si>
-  <si>
-    <t>prstkc_scaledbyassets</t>
-  </si>
-  <si>
-    <t>ncf_taxadjusted</t>
-  </si>
-  <si>
-    <t>proactive_tax_underpayment</t>
-  </si>
-  <si>
-    <t>above_median_leverage</t>
-  </si>
-  <si>
-    <t>proactive_debtissue</t>
-  </si>
-  <si>
-    <t>proactive_equityissue</t>
-  </si>
-  <si>
-    <t>proactive_tradecredit_financing</t>
-  </si>
-  <si>
-    <t>above_median_markettobook</t>
-  </si>
-  <si>
-    <t>annret</t>
-  </si>
-  <si>
-    <t>stdret</t>
-  </si>
-  <si>
-    <t>ncf_scaledbyassets</t>
-  </si>
-  <si>
-    <t>pvopls</t>
-  </si>
-  <si>
-    <t>unexpectedcashtax</t>
-  </si>
-  <si>
-    <t>utb_scaledbyassets</t>
-  </si>
-  <si>
-    <t>zscore</t>
-  </si>
-  <si>
-    <t>ncf_deficit, immediate_depletion</t>
-  </si>
-  <si>
-    <t>lnassets</t>
-  </si>
-  <si>
-    <t>shortfall_before_extfin_ind</t>
-  </si>
-  <si>
-    <t>shortfall_before_tax_ind</t>
-  </si>
-  <si>
-    <t>An indicator variable equal to 1 if the firm is above industry-year median debt-to-assets</t>
-  </si>
-  <si>
-    <t>An indicator variable equal to 1 if the firm is above industry-year median market-to-book</t>
-  </si>
-  <si>
-    <t>adjusted_assets converted to 2020 dollars</t>
-  </si>
-  <si>
-    <t>adjusted_assets converted to 2020 dollars, lagged by 1 year</t>
-  </si>
-  <si>
-    <t>The calendar year of datadate</t>
-  </si>
-  <si>
-    <t>Natural log of adjusted_assets</t>
-  </si>
-  <si>
-    <t>market_to_book, lagged by 1 year</t>
-  </si>
-  <si>
-    <t>utb_increase_scaledbybegutb, lagged by 1 year</t>
-  </si>
-  <si>
-    <t>An indicator variable equal to 1 if pti_scaledbyassets is &gt; 0</t>
-  </si>
-  <si>
-    <t>Residual from Eq (1)</t>
-  </si>
-  <si>
-    <t>Casht &lt; 0 (0,1) before ext. financing, From Table 2 Panel A</t>
-  </si>
-  <si>
-    <t>Casht &lt; 0 (0,1) before tax underpayment, From Table 2 Panel A</t>
-  </si>
-  <si>
-    <t>An indicator variable equal to 1 if the firm-year is post-Tax Cuts and Jobs Act</t>
+    <t>Tax underpayment </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,59 +1397,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1483,14 +1464,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,670 +1807,671 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C36" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C40" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C41" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C42" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
+      <c r="B59" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
